--- a/test_report/2021年04月13日/test_case_测试报告_20210413_104914.xlsx
+++ b/test_report/2021年04月13日/test_case_测试报告_20210413_104914.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharm_project_dir\AppAutoTest\test_report\2021年04月13日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_repository\AppAutoTest\test_report\2021年04月13日\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5DBB8-27F7-4E65-A2F1-9F7B20E26BF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491F5D1-C7AB-4CB3-991B-FF55D3183178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="测试用例集" sheetId="1" r:id="rId1"/>
     <sheet name="搜索词" sheetId="2" r:id="rId2"/>
     <sheet name="进入主页" sheetId="3" r:id="rId3"/>
     <sheet name="登录" sheetId="4" r:id="rId4"/>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1691,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/test_report/2021年04月13日/test_case_测试报告_20210413_104914.xlsx
+++ b/test_report/2021年04月13日/test_case_测试报告_20210413_104914.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_repository\AppAutoTest\test_report\2021年04月13日\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491F5D1-C7AB-4CB3-991B-FF55D3183178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8421077B-64C1-4139-AB02-D9678DAAABC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="96">
   <si>
     <t>用例名称</t>
   </si>
@@ -331,12 +331,16 @@
   <si>
     <t>2021/04/13 10:49:14</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -434,6 +438,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00FF00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -520,7 +531,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +601,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - 着色 4" xfId="3" builtinId="42"/>
@@ -872,7 +884,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -923,7 +935,9 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -981,7 +995,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
